--- a/Rev1/Release/BOM/Bill of Materials-DAQ-1-A.xlsx
+++ b/Rev1/Release/BOM/Bill of Materials-DAQ-1-A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -147,9 +147,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>RC0603FR-072K2L</t>
-  </si>
-  <si>
     <t>IC REG LIN 3.3V 800MA SOT223-3</t>
   </si>
   <si>
@@ -177,13 +174,13 @@
     <t>NVT2010PW,118</t>
   </si>
   <si>
-    <t>TEXAS INSTRUMENTS - ADS1115IDGSR . - Analogue to Digital Converter, 16 bit, 860 SPS, Differential, Single Ended, I2C, Single, 2 V</t>
+    <t>TEXAS INSTRUMENTS - ADS1115IDGST . - Analogue to Digital Converter, 16 bit, 860 SPS, Differential, Single Ended, I2C, Single, 2 V</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>ADS1115IDGSR</t>
+    <t>ADS1115IDGST</t>
   </si>
 </sst>
 </file>
@@ -723,64 +720,62 @@
       <c r="C15" s="46">
         <v>1</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>43</v>
-      </c>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="C16" s="46">
+        <v>1</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="46">
-        <v>1</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="45" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>48</v>
       </c>
       <c r="C17" s="46">
         <v>2</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="C18" s="46">
+        <v>1</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="46">
-        <v>1</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="C19" s="46">
+        <v>1</v>
+      </c>
+      <c r="D19" s="45" t="s">
         <v>54</v>
-      </c>
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
